--- a/Projeto 2 - parte 2/Results_disp.xlsx
+++ b/Projeto 2 - parte 2/Results_disp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Desktop\MCL\Parte2\Final_disp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA194238-65E1-4516-81BF-77BDB1621AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61D37F-0BE8-4132-B18B-A41FB74D63D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ref="G6:H6" si="3">-1*G51</f>
-        <v>5.0700500000000002</v>
+        <v>4.57</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ref="G7:H7" si="5">-1*G50</f>
-        <v>5.0700500000000002</v>
+        <v>4.57</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="5"/>
@@ -1781,7 +1781,7 @@
         <v>-11.034000000000001</v>
       </c>
       <c r="G50" s="3">
-        <v>-5.0700500000000002</v>
+        <v>-4.57</v>
       </c>
       <c r="H50" s="3">
         <v>-5.6948499999999997</v>
@@ -1798,7 +1798,7 @@
         <v>-11.034000000000001</v>
       </c>
       <c r="G51" s="3">
-        <v>-5.0700500000000002</v>
+        <v>-4.57</v>
       </c>
       <c r="H51" s="3">
         <v>-5.6948499999999997</v>

--- a/Projeto 2 - parte 2/Results_disp.xlsx
+++ b/Projeto 2 - parte 2/Results_disp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Desktop\MCL\Parte2\Final_disp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\MCL\Projeto 2 - parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61D37F-0BE8-4132-B18B-A41FB74D63D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A14AA-27FA-43A6-A207-D2999EF1D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13800" yWindow="1368" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Tração</t>
   </si>
@@ -102,13 +102,32 @@
   </si>
   <si>
     <t>Extensões</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>Gpa</t>
+  </si>
+  <si>
+    <t>Exx FEM</t>
+  </si>
+  <si>
+    <t>Exx Teoria Clássica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +137,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,10 +263,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,9 +298,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,17 +584,18 @@
   <dimension ref="A2:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -577,7 +608,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
         <v>1</v>
@@ -594,8 +625,14 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>257.69726249999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>-45</v>
       </c>
@@ -671,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>-45</v>
       </c>
@@ -715,7 +752,7 @@
         <v>6.0099999999999996E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>-45</v>
       </c>
@@ -750,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>-45</v>
       </c>
@@ -782,7 +819,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45</v>
       </c>
@@ -814,7 +851,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
@@ -845,8 +882,18 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="16">
+        <f>9000/(R3*R6)</f>
+        <v>67683.530263020497</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45</v>
       </c>
@@ -877,8 +924,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R11" s="17">
+        <f>R10*10^-3</f>
+        <v>67.683530263020501</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45</v>
       </c>
@@ -909,8 +963,18 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="16">
+        <f>9000/(R3*0.0005159)</f>
+        <v>67696.649768789634</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>90</v>
       </c>
@@ -941,8 +1005,15 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R13" s="17">
+        <f>R12*10^-3</f>
+        <v>67.696649768789641</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>90</v>
       </c>
@@ -974,7 +1045,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>90</v>
       </c>
@@ -1006,7 +1077,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1038,7 +1109,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1070,7 +1141,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>90</v>
       </c>
@@ -1102,7 +1173,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
@@ -1134,7 +1205,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>90</v>
       </c>
@@ -1166,7 +1237,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45</v>
       </c>
@@ -1198,7 +1269,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45</v>
       </c>
@@ -1230,7 +1301,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45</v>
       </c>
@@ -1262,7 +1333,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45</v>
       </c>
@@ -1294,7 +1365,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>-45</v>
       </c>
@@ -1326,7 +1397,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>-45</v>
       </c>
@@ -1358,7 +1429,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>-45</v>
       </c>
@@ -1387,7 +1458,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>-45</v>
       </c>
@@ -1416,7 +1487,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1504,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
@@ -1450,7 +1521,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1538,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1555,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1572,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1589,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1606,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1623,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1640,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1657,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1674,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1691,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1708,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1725,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1742,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1759,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" s="11" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1776,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1793,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" s="11" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1810,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" s="11" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1827,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1844,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1861,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1878,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>10</v>
       </c>
